--- a/【B】interview list.xlsx
+++ b/【B】interview list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e67360ba72905f1/デスクトップ/Cardiff University/Dissertation Project/diss-project-appendices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e67360ba72905f1/デスクトップ/Cardiff University/Dissertation Project/diss-project-datasets-and-appendices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17646A4F-87DE-4F75-A2A3-E1D94C01CD56}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6D6983-BB84-4501-8858-527C474BBDD0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Interviewee</t>
     <phoneticPr fontId="1"/>
@@ -110,14 +110,24 @@
     <t>All Interview were done in Japanese.</t>
   </si>
   <si>
-    <t>I asked the Ministry of Finance for comments but received no response.  I have noted that in the article.</t>
+    <t>The Ministry of Finance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21th August 2023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>According to the ministry of finance, there were 366 such measures as of May 2023. The reduction in tax revenue for the fiscal year 2021 alone was 6.7 trillion yen (equivalent to around 36 billion pounds assuming the currency exchange rate at 185yen to 1 pound), accounting for a scale equivalent to approximately one-tenth of the tax revenue for that year.
+How does the Ministry of Finance perceive the necessity of extending the "Special depreciation for shared facilities established by living environment industry associations"? When questioned about their stance, they responded, "the extension was decided upon after discussions during the tax reform process. Please inquire with the Ministry of Health, Labour and Welfare, the responsible agency, regarding the need for its continuation."</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +149,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -701,14 +721,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="3.5" customHeight="1" thickBot="1"/>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="198.5" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/【B】interview list.xlsx
+++ b/【B】interview list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e67360ba72905f1/デスクトップ/Cardiff University/Dissertation Project/diss-project-datasets-and-appendices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6D6983-BB84-4501-8858-527C474BBDD0}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61486F5-D315-4887-8B17-7016E7584873}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Quates</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Hideaki Tanaka at Meiji University</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,10 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The Living Environment Division explained that "Based on a survey of the associations, it was found that the measure is expected to be utilized when the economy recovers from the coronavirus crisis." However, this only amounts to one application this fiscal year, and another expected next year. When asked about the reason for the limited utilization, they responded, "We would like to thoroughly publicize the benefits and the mechanism."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>The Policy Evaluation Division of the Ministry of Internal Affairs and Communications</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,7 +110,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>According to the ministry of finance, there were 366 such measures as of May 2023. The reduction in tax revenue for the fiscal year 2021 alone was 6.7 trillion yen (equivalent to around 36 billion pounds assuming the currency exchange rate at 185yen to 1 pound), accounting for a scale equivalent to approximately one-tenth of the tax revenue for that year.
+    <t>Quotes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Living Environment Division explained that "Based on a survey of the associations, it was found that the measure is expected to be utilised when the economy recovers from the coronavirus crisis." However, this only amounts to one application this fiscal year, and another expected next year. When asked about the reason for the limited utilisation, they responded, "We would like to thoroughly publicise the benefits and the mechanism."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>According to the ministry of finance, there were 366 such measures as of May 2023. The reduction in tax revenue for the fiscal year 2021 alone was 6.7 trillion yen (equivalent to around 36 billion pounds assuming the currency exchange rate at 185 yen to 1 pound), accounting for a scale equivalent to approximately one-tenth of the tax revenue for that year.
 How does the Ministry of Finance perceive the necessity of extending the "Special depreciation for shared facilities established by living environment industry associations"? When questioned about their stance, they responded, "the extension was decided upon after discussions during the tax reform process. Please inquire with the Ministry of Health, Labour and Welfare, the responsible agency, regarding the need for its continuation."</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" customHeight="1">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1">
@@ -628,15 +628,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="71" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="3.5" customHeight="1" thickBot="1"/>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" customHeight="1">
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" customHeight="1">
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" customHeight="1">
@@ -669,15 +669,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="121.5" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="3.5" customHeight="1" thickBot="1"/>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" customHeight="1">
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" customHeight="1">
@@ -710,15 +710,15 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="51.5" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="3.5" customHeight="1" thickBot="1"/>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -751,12 +751,12 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="198.5" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>23</v>
@@ -764,11 +764,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/【B】interview list.xlsx
+++ b/【B】interview list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e67360ba72905f1/デスクトップ/Cardiff University/Dissertation Project/diss-project-datasets-and-appendices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61486F5-D315-4887-8B17-7016E7584873}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A289B71-A044-40E0-BB31-1E2A26D1BB53}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The Policy Evaluation Division says that whether to extend the Sotoku is a job for the tax authorities, and they themselves simply try to "continue to improve the quality of evaluations through inspections."</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>The Policy Evaluation Division of the Ministry of Internal Affairs and Communications</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -120,6 +116,10 @@
   <si>
     <t>According to the ministry of finance, there were 366 such measures as of May 2023. The reduction in tax revenue for the fiscal year 2021 alone was 6.7 trillion yen (equivalent to around 36 billion pounds assuming the currency exchange rate at 185 yen to 1 pound), accounting for a scale equivalent to approximately one-tenth of the tax revenue for that year.
 How does the Ministry of Finance perceive the necessity of extending the "Special depreciation for shared facilities established by living environment industry associations"? When questioned about their stance, they responded, "the extension was decided upon after discussions during the tax reform process. Please inquire with the Ministry of Health, Labour and Welfare, the responsible agency, regarding the need for its continuation."</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Policy Evaluation Division says that whether to extend Sotoku is a job for the tax authorities, and they themselves simply try to "continue to improve the quality of evaluations through inspections."</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="5" spans="1:2" ht="71" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="11" spans="1:2" ht="121.5" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="3.5" customHeight="1" thickBot="1"/>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1">
@@ -715,10 +715,10 @@
     </row>
     <row r="17" spans="1:2" ht="51.5" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="3.5" customHeight="1" thickBot="1"/>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -756,15 +756,15 @@
     </row>
     <row r="23" spans="1:2" ht="198.5" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/【B】interview list.xlsx
+++ b/【B】interview list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e67360ba72905f1/デスクトップ/Cardiff University/Dissertation Project/diss-project-datasets-and-appendices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A289B71-A044-40E0-BB31-1E2A26D1BB53}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_AD4D066CA252ABDACC1048258194EC9C72EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A85F02BD-0ECC-4BD6-B284-F43706096B36}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Interviewee</t>
     <phoneticPr fontId="1"/>
@@ -121,13 +121,16 @@
   <si>
     <t>The Policy Evaluation Division says that whether to extend Sotoku is a job for the tax authorities, and they themselves simply try to "continue to improve the quality of evaluations through inspections."</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Although the articles include opinions from an insider involved in the tax reform, the person is not included in the aforementioned list as they responded to the interview on the condition of anonymity.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Yu Gothic Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -767,6 +781,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
